--- a/Score.xlsx
+++ b/Score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoHaMeD\Desktop\Git-Hup\HMSProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43299A2F-7096-4AFD-8A3D-FC9E29617E55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E48E27-0E6D-4736-AE1C-808EDFFC0370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>HamzA</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>0.8-0.6</t>
-  </si>
-  <si>
-    <t>0.0-0.0</t>
   </si>
 </sst>
 </file>
@@ -81,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +95,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,12 +135,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +442,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,19 +476,19 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -485,10 +496,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
